--- a/data/99. analyzes/excel/pharmas/nach_offenlegung_all.xlsx
+++ b/data/99. analyzes/excel/pharmas/nach_offenlegung_all.xlsx
@@ -1269,16 +1269,16 @@
         <v>144812</v>
       </c>
       <c r="F24" t="n">
-        <v>1510422</v>
+        <v>1509342</v>
       </c>
       <c r="G24" t="n">
-        <v>146487</v>
+        <v>146199</v>
       </c>
       <c r="H24" t="n">
         <v>1536223</v>
       </c>
       <c r="I24" t="n">
-        <v>10877518</v>
+        <v>10876150</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2342,16 +2342,16 @@
         <v>21698628.43</v>
       </c>
       <c r="F61" t="n">
-        <v>51548175.9</v>
+        <v>51547095.9</v>
       </c>
       <c r="G61" t="n">
-        <v>3994811.41</v>
+        <v>3994523.41</v>
       </c>
       <c r="H61" t="n">
         <v>229261982.53</v>
       </c>
       <c r="I61" t="n">
-        <v>639880457.5</v>
+        <v>639879089.5</v>
       </c>
     </row>
   </sheetData>
@@ -3789,16 +3789,16 @@
         <v>94948</v>
       </c>
       <c r="G46" t="n">
-        <v>1020079</v>
+        <v>1018999</v>
       </c>
       <c r="H46" t="n">
-        <v>59178</v>
+        <v>58890</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>8246284</v>
+        <v>8244916</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -5991,16 +5991,16 @@
         <v>21698628.43</v>
       </c>
       <c r="G117" t="n">
-        <v>51548175.9</v>
+        <v>51547095.9</v>
       </c>
       <c r="H117" t="n">
-        <v>3994811.41</v>
+        <v>3994523.41</v>
       </c>
       <c r="I117" t="n">
         <v>229261982.53</v>
       </c>
       <c r="J117" t="n">
-        <v>639880457.5</v>
+        <v>639879089.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/99. analyzes/excel/pharmas/nach_offenlegung_all.xlsx
+++ b/data/99. analyzes/excel/pharmas/nach_offenlegung_all.xlsx
@@ -1840,16 +1840,16 @@
         <v>11192941.91</v>
       </c>
       <c r="C44" t="n">
-        <v>22397512.52</v>
+        <v>22398112.36</v>
       </c>
       <c r="D44" t="n">
-        <v>1067743.59</v>
+        <v>1064251.59</v>
       </c>
       <c r="E44" t="n">
-        <v>816867.92</v>
+        <v>817573.92</v>
       </c>
       <c r="F44" t="n">
-        <v>8110188.86</v>
+        <v>8099221</v>
       </c>
       <c r="G44" t="n">
         <v>333294.05</v>
@@ -1858,7 +1858,7 @@
         <v>47252407.53</v>
       </c>
       <c r="I44" t="n">
-        <v>91170956.38</v>
+        <v>91157802.36</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2333,16 +2333,16 @@
         <v>103953646.93</v>
       </c>
       <c r="C61" t="n">
-        <v>218039136.24</v>
+        <v>218039736.08</v>
       </c>
       <c r="D61" t="n">
-        <v>11384076.06</v>
+        <v>11380584.06</v>
       </c>
       <c r="E61" t="n">
-        <v>21698628.43</v>
+        <v>21699334.43</v>
       </c>
       <c r="F61" t="n">
-        <v>51547095.9</v>
+        <v>51536128.04</v>
       </c>
       <c r="G61" t="n">
         <v>3994523.41</v>
@@ -2351,7 +2351,7 @@
         <v>229261982.53</v>
       </c>
       <c r="I61" t="n">
-        <v>639879089.5</v>
+        <v>639865935.48</v>
       </c>
     </row>
   </sheetData>
@@ -4990,16 +4990,16 @@
         <v>11118850.72</v>
       </c>
       <c r="D85" t="n">
-        <v>21869203.93</v>
+        <v>21869803.77</v>
       </c>
       <c r="E85" t="n">
-        <v>1013273.99</v>
+        <v>1009781.99</v>
       </c>
       <c r="F85" t="n">
-        <v>707019.42</v>
+        <v>707725.42</v>
       </c>
       <c r="G85" t="n">
-        <v>7659625.07</v>
+        <v>7648657.21</v>
       </c>
       <c r="H85" t="n">
         <v>300033.88</v>
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>42668007.01</v>
+        <v>42654852.99</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -5982,16 +5982,16 @@
         <v>103953646.93</v>
       </c>
       <c r="D117" t="n">
-        <v>218039136.24</v>
+        <v>218039736.08</v>
       </c>
       <c r="E117" t="n">
-        <v>11384076.06</v>
+        <v>11380584.06</v>
       </c>
       <c r="F117" t="n">
-        <v>21698628.43</v>
+        <v>21699334.43</v>
       </c>
       <c r="G117" t="n">
-        <v>51547095.9</v>
+        <v>51536128.04</v>
       </c>
       <c r="H117" t="n">
         <v>3994523.41</v>
@@ -6000,7 +6000,7 @@
         <v>229261982.53</v>
       </c>
       <c r="J117" t="n">
-        <v>639879089.5</v>
+        <v>639865935.48</v>
       </c>
     </row>
   </sheetData>

--- a/data/99. analyzes/excel/pharmas/nach_offenlegung_all.xlsx
+++ b/data/99. analyzes/excel/pharmas/nach_offenlegung_all.xlsx
@@ -135,9 +135,6 @@
     <t>HRA Pharma</t>
   </si>
   <si>
-    <t>Hoffmann-La Roche</t>
-  </si>
-  <si>
     <t>Janssen Pharmaceutica</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>Recordati</t>
+  </si>
+  <si>
+    <t>Roche Pharma AG</t>
   </si>
   <si>
     <t>Sandoz Pharmaceuticals AG</t>
@@ -1489,28 +1489,28 @@
         <v>39</v>
       </c>
       <c r="B32" t="n">
-        <v>4738784.49</v>
+        <v>8161222</v>
       </c>
       <c r="C32" t="n">
-        <v>11321524.72</v>
+        <v>4039752</v>
       </c>
       <c r="D32" t="n">
-        <v>1911585.16</v>
+        <v>111683</v>
       </c>
       <c r="E32" t="n">
-        <v>919267.02</v>
+        <v>266766</v>
       </c>
       <c r="F32" t="n">
-        <v>4767451.55</v>
+        <v>1038281</v>
       </c>
       <c r="G32" t="n">
-        <v>325480.34</v>
+        <v>62718</v>
       </c>
       <c r="H32" t="n">
-        <v>36736600.07</v>
+        <v>4986126</v>
       </c>
       <c r="I32" t="n">
-        <v>60720693.35</v>
+        <v>18666548</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1518,28 +1518,28 @@
         <v>40</v>
       </c>
       <c r="B33" t="n">
-        <v>8161222</v>
+        <v>31164.24</v>
       </c>
       <c r="C33" t="n">
-        <v>4039752</v>
+        <v>1116787.93</v>
       </c>
       <c r="D33" t="n">
-        <v>111683</v>
+        <v>7433.3</v>
       </c>
       <c r="E33" t="n">
-        <v>266766</v>
+        <v>68965.60000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>1038281</v>
+        <v>134153.6</v>
       </c>
       <c r="G33" t="n">
-        <v>62718</v>
+        <v>6952.04</v>
       </c>
       <c r="H33" t="n">
-        <v>4986126</v>
+        <v>5000</v>
       </c>
       <c r="I33" t="n">
-        <v>18666548</v>
+        <v>1370456.71</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1547,28 +1547,28 @@
         <v>41</v>
       </c>
       <c r="B34" t="n">
-        <v>31164.24</v>
+        <v>10544</v>
       </c>
       <c r="C34" t="n">
-        <v>1116787.93</v>
+        <v>1429288</v>
       </c>
       <c r="D34" t="n">
-        <v>7433.3</v>
+        <v>98494.35000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>68965.60000000001</v>
+        <v>248523.85</v>
       </c>
       <c r="F34" t="n">
-        <v>134153.6</v>
+        <v>554040</v>
       </c>
       <c r="G34" t="n">
-        <v>6952.04</v>
+        <v>17489</v>
       </c>
       <c r="H34" t="n">
-        <v>5000</v>
+        <v>118589.75</v>
       </c>
       <c r="I34" t="n">
-        <v>1370456.71</v>
+        <v>2476968.95</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1576,28 +1576,28 @@
         <v>42</v>
       </c>
       <c r="B35" t="n">
-        <v>10544</v>
+        <v>5237338.1</v>
       </c>
       <c r="C35" t="n">
-        <v>1429288</v>
+        <v>11781471.57</v>
       </c>
       <c r="D35" t="n">
-        <v>98494.35000000001</v>
+        <v>233288.89</v>
       </c>
       <c r="E35" t="n">
-        <v>248523.85</v>
+        <v>1068030.52</v>
       </c>
       <c r="F35" t="n">
-        <v>554040</v>
+        <v>3116752.41</v>
       </c>
       <c r="G35" t="n">
-        <v>17489</v>
+        <v>143848.85</v>
       </c>
       <c r="H35" t="n">
-        <v>118589.75</v>
+        <v>9510252.029999999</v>
       </c>
       <c r="I35" t="n">
-        <v>2476968.95</v>
+        <v>31090982.37</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1605,28 +1605,28 @@
         <v>43</v>
       </c>
       <c r="B36" t="n">
-        <v>5237338.1</v>
+        <v>26316</v>
       </c>
       <c r="C36" t="n">
-        <v>11781471.57</v>
+        <v>543731</v>
       </c>
       <c r="D36" t="n">
-        <v>233288.89</v>
+        <v>8049.05</v>
       </c>
       <c r="E36" t="n">
-        <v>1068030.52</v>
+        <v>14646.84</v>
       </c>
       <c r="F36" t="n">
-        <v>3116752.41</v>
+        <v>39141</v>
       </c>
       <c r="G36" t="n">
-        <v>143848.85</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>9510252.029999999</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>31090982.37</v>
+        <v>631883.89</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1634,28 +1634,28 @@
         <v>44</v>
       </c>
       <c r="B37" t="n">
-        <v>26316</v>
+        <v>10348</v>
       </c>
       <c r="C37" t="n">
-        <v>543731</v>
+        <v>2620898</v>
       </c>
       <c r="D37" t="n">
-        <v>8049.05</v>
+        <v>33978</v>
       </c>
       <c r="E37" t="n">
-        <v>14646.84</v>
+        <v>17049</v>
       </c>
       <c r="F37" t="n">
-        <v>39141</v>
+        <v>548134</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>6789</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>631883.89</v>
+        <v>3237196</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1663,28 +1663,28 @@
         <v>45</v>
       </c>
       <c r="B38" t="n">
-        <v>10348</v>
+        <v>16885572.63</v>
       </c>
       <c r="C38" t="n">
-        <v>2620898</v>
+        <v>4276860.69</v>
       </c>
       <c r="D38" t="n">
-        <v>33978</v>
+        <v>206909.84</v>
       </c>
       <c r="E38" t="n">
-        <v>17049</v>
+        <v>637718.45</v>
       </c>
       <c r="F38" t="n">
-        <v>548134</v>
+        <v>1060919.57</v>
       </c>
       <c r="G38" t="n">
-        <v>6789</v>
+        <v>62191.77</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>3286259.92</v>
       </c>
       <c r="I38" t="n">
-        <v>3237196</v>
+        <v>26416432.87</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1692,28 +1692,28 @@
         <v>46</v>
       </c>
       <c r="B39" t="n">
-        <v>16885572.63</v>
+        <v>2591945.25</v>
       </c>
       <c r="C39" t="n">
-        <v>4276860.69</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>206909.84</v>
+        <v>150093</v>
       </c>
       <c r="E39" t="n">
-        <v>637718.45</v>
+        <v>314889.4</v>
       </c>
       <c r="F39" t="n">
-        <v>1060919.57</v>
+        <v>123255.2</v>
       </c>
       <c r="G39" t="n">
-        <v>62191.77</v>
+        <v>55283</v>
       </c>
       <c r="H39" t="n">
-        <v>3286259.92</v>
+        <v>415347</v>
       </c>
       <c r="I39" t="n">
-        <v>26416432.87</v>
+        <v>3650812.85</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1721,28 +1721,28 @@
         <v>47</v>
       </c>
       <c r="B40" t="n">
-        <v>2591945.25</v>
+        <v>54900</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1074910</v>
       </c>
       <c r="D40" t="n">
-        <v>150093</v>
+        <v>27977.8</v>
       </c>
       <c r="E40" t="n">
-        <v>314889.4</v>
+        <v>49569</v>
       </c>
       <c r="F40" t="n">
-        <v>123255.2</v>
+        <v>66082</v>
       </c>
       <c r="G40" t="n">
-        <v>55283</v>
+        <v>27900</v>
       </c>
       <c r="H40" t="n">
-        <v>415347</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>3650812.85</v>
+        <v>1301338.8</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1750,28 +1750,28 @@
         <v>48</v>
       </c>
       <c r="B41" t="n">
-        <v>54900</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1074910</v>
+        <v>48700</v>
       </c>
       <c r="D41" t="n">
-        <v>27977.8</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>49569</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>66082</v>
+        <v>900</v>
       </c>
       <c r="G41" t="n">
-        <v>27900</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1301338.8</v>
+        <v>49600</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1779,28 +1779,28 @@
         <v>49</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="C42" t="n">
-        <v>48700</v>
+        <v>127895.72</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>2686.15</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>4535.78</v>
       </c>
       <c r="F42" t="n">
-        <v>900</v>
+        <v>19045</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>60.54</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>18622.54</v>
       </c>
       <c r="I42" t="n">
-        <v>49600</v>
+        <v>177845.73</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1808,28 +1808,28 @@
         <v>50</v>
       </c>
       <c r="B43" t="n">
-        <v>5000</v>
+        <v>11192941.91</v>
       </c>
       <c r="C43" t="n">
-        <v>127895.72</v>
+        <v>22398112.36</v>
       </c>
       <c r="D43" t="n">
-        <v>2686.15</v>
+        <v>1064251.59</v>
       </c>
       <c r="E43" t="n">
-        <v>4535.78</v>
+        <v>817573.92</v>
       </c>
       <c r="F43" t="n">
-        <v>19045</v>
+        <v>8099221</v>
       </c>
       <c r="G43" t="n">
-        <v>60.54</v>
+        <v>333294.05</v>
       </c>
       <c r="H43" t="n">
-        <v>18622.54</v>
+        <v>47252407.53</v>
       </c>
       <c r="I43" t="n">
-        <v>177845.73</v>
+        <v>91157802.36</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1837,28 +1837,28 @@
         <v>51</v>
       </c>
       <c r="B44" t="n">
-        <v>11192941.91</v>
+        <v>4365868</v>
       </c>
       <c r="C44" t="n">
-        <v>22398112.36</v>
+        <v>1072739</v>
       </c>
       <c r="D44" t="n">
-        <v>1064251.59</v>
+        <v>394822</v>
       </c>
       <c r="E44" t="n">
-        <v>817573.92</v>
+        <v>1152422.24</v>
       </c>
       <c r="F44" t="n">
-        <v>8099221</v>
+        <v>872153.26</v>
       </c>
       <c r="G44" t="n">
-        <v>333294.05</v>
+        <v>87120.2</v>
       </c>
       <c r="H44" t="n">
-        <v>47252407.53</v>
+        <v>1365154</v>
       </c>
       <c r="I44" t="n">
-        <v>91157802.36</v>
+        <v>9310278.699999999</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1866,28 +1866,28 @@
         <v>52</v>
       </c>
       <c r="B45" t="n">
-        <v>4365868</v>
+        <v>140786</v>
       </c>
       <c r="C45" t="n">
-        <v>1072739</v>
+        <v>452862.64</v>
       </c>
       <c r="D45" t="n">
-        <v>394822</v>
+        <v>69940.21000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>1152422.24</v>
+        <v>98975.42999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>872153.26</v>
+        <v>46006.1</v>
       </c>
       <c r="G45" t="n">
-        <v>87120.2</v>
+        <v>190305.14</v>
       </c>
       <c r="H45" t="n">
-        <v>1365154</v>
+        <v>19.92</v>
       </c>
       <c r="I45" t="n">
-        <v>9310278.699999999</v>
+        <v>998895.4399999999</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1895,28 +1895,28 @@
         <v>53</v>
       </c>
       <c r="B46" t="n">
-        <v>140786</v>
+        <v>81985.10000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>452862.64</v>
+        <v>469173.44</v>
       </c>
       <c r="D46" t="n">
-        <v>69940.21000000001</v>
+        <v>46015.23</v>
       </c>
       <c r="E46" t="n">
-        <v>98975.42999999999</v>
+        <v>87990.05</v>
       </c>
       <c r="F46" t="n">
-        <v>46006.1</v>
+        <v>201854.17</v>
       </c>
       <c r="G46" t="n">
-        <v>190305.14</v>
+        <v>10288.19</v>
       </c>
       <c r="H46" t="n">
-        <v>19.92</v>
+        <v>90076.87</v>
       </c>
       <c r="I46" t="n">
-        <v>998895.4399999999</v>
+        <v>987383.05</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1924,28 +1924,28 @@
         <v>54</v>
       </c>
       <c r="B47" t="n">
-        <v>81985.10000000001</v>
+        <v>6090395</v>
       </c>
       <c r="C47" t="n">
-        <v>469173.44</v>
+        <v>17986190</v>
       </c>
       <c r="D47" t="n">
-        <v>46015.23</v>
+        <v>307263</v>
       </c>
       <c r="E47" t="n">
-        <v>87990.05</v>
+        <v>1021880</v>
       </c>
       <c r="F47" t="n">
-        <v>201854.17</v>
+        <v>2400496</v>
       </c>
       <c r="G47" t="n">
-        <v>10288.19</v>
+        <v>83810</v>
       </c>
       <c r="H47" t="n">
-        <v>90076.87</v>
+        <v>12597204</v>
       </c>
       <c r="I47" t="n">
-        <v>987383.05</v>
+        <v>40487238</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1953,28 +1953,28 @@
         <v>55</v>
       </c>
       <c r="B48" t="n">
-        <v>6090395</v>
+        <v>10502</v>
       </c>
       <c r="C48" t="n">
-        <v>17986190</v>
+        <v>664739.4</v>
       </c>
       <c r="D48" t="n">
-        <v>307263</v>
+        <v>154203.68</v>
       </c>
       <c r="E48" t="n">
-        <v>1021880</v>
+        <v>136929.61</v>
       </c>
       <c r="F48" t="n">
-        <v>2400496</v>
+        <v>84355.44</v>
       </c>
       <c r="G48" t="n">
-        <v>83810</v>
+        <v>3437.87</v>
       </c>
       <c r="H48" t="n">
-        <v>12597204</v>
+        <v>1500</v>
       </c>
       <c r="I48" t="n">
-        <v>40487238</v>
+        <v>1055668</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1982,28 +1982,28 @@
         <v>56</v>
       </c>
       <c r="B49" t="n">
-        <v>10502</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>664739.4</v>
+        <v>17700</v>
       </c>
       <c r="D49" t="n">
-        <v>154203.68</v>
+        <v>2796.79</v>
       </c>
       <c r="E49" t="n">
-        <v>136929.61</v>
+        <v>7528.79</v>
       </c>
       <c r="F49" t="n">
-        <v>84355.44</v>
+        <v>34700</v>
       </c>
       <c r="G49" t="n">
-        <v>3437.87</v>
+        <v>1118.3</v>
       </c>
       <c r="H49" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1055668</v>
+        <v>63843.88</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2011,28 +2011,28 @@
         <v>57</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>4738784.49</v>
       </c>
       <c r="C50" t="n">
-        <v>17700</v>
+        <v>11321524.72</v>
       </c>
       <c r="D50" t="n">
-        <v>2796.79</v>
+        <v>1911585.16</v>
       </c>
       <c r="E50" t="n">
-        <v>7528.79</v>
+        <v>919267.02</v>
       </c>
       <c r="F50" t="n">
-        <v>34700</v>
+        <v>4767451.55</v>
       </c>
       <c r="G50" t="n">
-        <v>1118.3</v>
+        <v>325480.34</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>36736600.07</v>
       </c>
       <c r="I50" t="n">
-        <v>63843.88</v>
+        <v>60720693.35</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4243,28 +4243,28 @@
         <v>70</v>
       </c>
       <c r="C61" t="n">
-        <v>270911.78</v>
+        <v>2142559</v>
       </c>
       <c r="D61" t="n">
-        <v>26211.88</v>
+        <v>1089752</v>
       </c>
       <c r="E61" t="n">
-        <v>65495.46</v>
+        <v>63891</v>
       </c>
       <c r="F61" t="n">
-        <v>88993.73</v>
+        <v>154373</v>
       </c>
       <c r="G61" t="n">
-        <v>1874451.2</v>
+        <v>454291</v>
       </c>
       <c r="H61" t="n">
-        <v>76714.38</v>
+        <v>42967</v>
       </c>
       <c r="I61" t="n">
-        <v>36736600.07</v>
+        <v>4986126</v>
       </c>
       <c r="J61" t="n">
-        <v>39139378.5</v>
+        <v>8933959</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -4273,28 +4273,28 @@
         <v>69</v>
       </c>
       <c r="C62" t="n">
-        <v>4467872.71</v>
+        <v>6018663</v>
       </c>
       <c r="D62" t="n">
-        <v>11295312.84</v>
+        <v>2950000</v>
       </c>
       <c r="E62" t="n">
-        <v>1846089.7</v>
+        <v>47792</v>
       </c>
       <c r="F62" t="n">
-        <v>830273.29</v>
+        <v>112393</v>
       </c>
       <c r="G62" t="n">
-        <v>2893000.35</v>
+        <v>583990</v>
       </c>
       <c r="H62" t="n">
-        <v>248765.96</v>
+        <v>19751</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>21581314.85</v>
+        <v>9732589</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -4305,28 +4305,28 @@
         <v>70</v>
       </c>
       <c r="C63" t="n">
-        <v>2142559</v>
+        <v>1600</v>
       </c>
       <c r="D63" t="n">
-        <v>1089752</v>
+        <v>94557.35000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>63891</v>
+        <v>727.3200000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>154373</v>
+        <v>3503.78</v>
       </c>
       <c r="G63" t="n">
-        <v>454291</v>
+        <v>27060</v>
       </c>
       <c r="H63" t="n">
-        <v>42967</v>
+        <v>42</v>
       </c>
       <c r="I63" t="n">
-        <v>4986126</v>
+        <v>5000</v>
       </c>
       <c r="J63" t="n">
-        <v>8933959</v>
+        <v>132490.45</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -4335,28 +4335,28 @@
         <v>69</v>
       </c>
       <c r="C64" t="n">
-        <v>6018663</v>
+        <v>29564.24</v>
       </c>
       <c r="D64" t="n">
-        <v>2950000</v>
+        <v>1022230.58</v>
       </c>
       <c r="E64" t="n">
-        <v>47792</v>
+        <v>6705.98</v>
       </c>
       <c r="F64" t="n">
-        <v>112393</v>
+        <v>65461.82</v>
       </c>
       <c r="G64" t="n">
-        <v>583990</v>
+        <v>107093.6</v>
       </c>
       <c r="H64" t="n">
-        <v>19751</v>
+        <v>6910.04</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>9732589</v>
+        <v>1237966.26</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -4367,28 +4367,28 @@
         <v>70</v>
       </c>
       <c r="C65" t="n">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>94557.35000000001</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>727.3200000000001</v>
+        <v>161.35</v>
       </c>
       <c r="F65" t="n">
-        <v>3503.78</v>
+        <v>680.85</v>
       </c>
       <c r="G65" t="n">
-        <v>27060</v>
+        <v>500</v>
       </c>
       <c r="H65" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>5000</v>
+        <v>118589.75</v>
       </c>
       <c r="J65" t="n">
-        <v>132490.45</v>
+        <v>119931.95</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -4397,28 +4397,28 @@
         <v>69</v>
       </c>
       <c r="C66" t="n">
-        <v>29564.24</v>
+        <v>10544</v>
       </c>
       <c r="D66" t="n">
-        <v>1022230.58</v>
+        <v>1429288</v>
       </c>
       <c r="E66" t="n">
-        <v>6705.98</v>
+        <v>98333</v>
       </c>
       <c r="F66" t="n">
-        <v>65461.82</v>
+        <v>247843</v>
       </c>
       <c r="G66" t="n">
-        <v>107093.6</v>
+        <v>553540</v>
       </c>
       <c r="H66" t="n">
-        <v>6910.04</v>
+        <v>17489</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1237966.26</v>
+        <v>2357037</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -4429,28 +4429,28 @@
         <v>70</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>564535.91</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>2266095.21</v>
       </c>
       <c r="E67" t="n">
-        <v>161.35</v>
+        <v>105617.4</v>
       </c>
       <c r="F67" t="n">
-        <v>680.85</v>
+        <v>374762.63</v>
       </c>
       <c r="G67" t="n">
-        <v>500</v>
+        <v>1313025.11</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>54705.47</v>
       </c>
       <c r="I67" t="n">
-        <v>118589.75</v>
+        <v>9510252.029999999</v>
       </c>
       <c r="J67" t="n">
-        <v>119931.95</v>
+        <v>14188993.76</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -4459,28 +4459,28 @@
         <v>69</v>
       </c>
       <c r="C68" t="n">
-        <v>10544</v>
+        <v>4672802.19</v>
       </c>
       <c r="D68" t="n">
-        <v>1429288</v>
+        <v>9515376.359999999</v>
       </c>
       <c r="E68" t="n">
-        <v>98333</v>
+        <v>127671.49</v>
       </c>
       <c r="F68" t="n">
-        <v>247843</v>
+        <v>693267.89</v>
       </c>
       <c r="G68" t="n">
-        <v>553540</v>
+        <v>1803727.3</v>
       </c>
       <c r="H68" t="n">
-        <v>17489</v>
+        <v>89143.38</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2357037</v>
+        <v>16901988.61</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -4491,28 +4491,28 @@
         <v>70</v>
       </c>
       <c r="C69" t="n">
-        <v>564535.91</v>
+        <v>25000</v>
       </c>
       <c r="D69" t="n">
-        <v>2266095.21</v>
+        <v>162771</v>
       </c>
       <c r="E69" t="n">
-        <v>105617.4</v>
+        <v>4389.05</v>
       </c>
       <c r="F69" t="n">
-        <v>374762.63</v>
+        <v>8831.84</v>
       </c>
       <c r="G69" t="n">
-        <v>1313025.11</v>
+        <v>10834</v>
       </c>
       <c r="H69" t="n">
-        <v>54705.47</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>9510252.029999999</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>14188993.76</v>
+        <v>211825.89</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -4521,28 +4521,28 @@
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>4672802.19</v>
+        <v>1316</v>
       </c>
       <c r="D70" t="n">
-        <v>9515376.359999999</v>
+        <v>380960</v>
       </c>
       <c r="E70" t="n">
-        <v>127671.49</v>
+        <v>3660</v>
       </c>
       <c r="F70" t="n">
-        <v>693267.89</v>
+        <v>5815</v>
       </c>
       <c r="G70" t="n">
-        <v>1803727.3</v>
+        <v>28307</v>
       </c>
       <c r="H70" t="n">
-        <v>89143.38</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>16901988.61</v>
+        <v>420058</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -4553,28 +4553,28 @@
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>162771</v>
+        <v>255672</v>
       </c>
       <c r="E71" t="n">
-        <v>4389.05</v>
+        <v>5685</v>
       </c>
       <c r="F71" t="n">
-        <v>8831.84</v>
+        <v>8524</v>
       </c>
       <c r="G71" t="n">
-        <v>10834</v>
+        <v>25802</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1623</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>211825.89</v>
+        <v>297306</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -4583,28 +4583,28 @@
         <v>69</v>
       </c>
       <c r="C72" t="n">
-        <v>1316</v>
+        <v>10348</v>
       </c>
       <c r="D72" t="n">
-        <v>380960</v>
+        <v>2365226</v>
       </c>
       <c r="E72" t="n">
-        <v>3660</v>
+        <v>28293</v>
       </c>
       <c r="F72" t="n">
-        <v>5815</v>
+        <v>8525</v>
       </c>
       <c r="G72" t="n">
-        <v>28307</v>
+        <v>522332</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>5166</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>420058</v>
+        <v>2939890</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -4618,25 +4618,25 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>255672</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>5685</v>
+        <v>84449.22</v>
       </c>
       <c r="F73" t="n">
-        <v>8524</v>
+        <v>254844.72</v>
       </c>
       <c r="G73" t="n">
-        <v>25802</v>
+        <v>619057.9</v>
       </c>
       <c r="H73" t="n">
-        <v>1623</v>
+        <v>53336.88</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>3286259.92</v>
       </c>
       <c r="J73" t="n">
-        <v>297306</v>
+        <v>4297948.64</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -4645,28 +4645,28 @@
         <v>69</v>
       </c>
       <c r="C74" t="n">
-        <v>10348</v>
+        <v>16885572.63</v>
       </c>
       <c r="D74" t="n">
-        <v>2365226</v>
+        <v>4276860.69</v>
       </c>
       <c r="E74" t="n">
-        <v>28293</v>
+        <v>122460.62</v>
       </c>
       <c r="F74" t="n">
-        <v>8525</v>
+        <v>382873.73</v>
       </c>
       <c r="G74" t="n">
-        <v>522332</v>
+        <v>441861.67</v>
       </c>
       <c r="H74" t="n">
-        <v>5166</v>
+        <v>8854.889999999999</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2939890</v>
+        <v>22118484.23</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -4683,22 +4683,22 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>84449.22</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>254844.72</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>619057.9</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>53336.88</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>3286259.92</v>
+        <v>415347</v>
       </c>
       <c r="J75" t="n">
-        <v>4297948.64</v>
+        <v>415347</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -4707,28 +4707,28 @@
         <v>69</v>
       </c>
       <c r="C76" t="n">
-        <v>16885572.63</v>
+        <v>2591945.25</v>
       </c>
       <c r="D76" t="n">
-        <v>4276860.69</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>122460.62</v>
+        <v>150093</v>
       </c>
       <c r="F76" t="n">
-        <v>382873.73</v>
+        <v>314889.4</v>
       </c>
       <c r="G76" t="n">
-        <v>441861.67</v>
+        <v>123255.2</v>
       </c>
       <c r="H76" t="n">
-        <v>8854.889999999999</v>
+        <v>55283</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>22118484.23</v>
+        <v>3235465.85</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -4739,28 +4739,28 @@
         <v>70</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>29900</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>47688</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>705</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>8250</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="I77" t="n">
-        <v>415347</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>415347</v>
+        <v>90543</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -4769,28 +4769,28 @@
         <v>69</v>
       </c>
       <c r="C78" t="n">
-        <v>2591945.25</v>
+        <v>25000</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1027222</v>
       </c>
       <c r="E78" t="n">
-        <v>150093</v>
+        <v>27977.8</v>
       </c>
       <c r="F78" t="n">
-        <v>314889.4</v>
+        <v>48864</v>
       </c>
       <c r="G78" t="n">
-        <v>123255.2</v>
+        <v>57832</v>
       </c>
       <c r="H78" t="n">
-        <v>55283</v>
+        <v>23900</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>3235465.85</v>
+        <v>1210795.8</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -4798,93 +4798,93 @@
         <v>48</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>48700</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>900</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>49600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C79" t="n">
-        <v>29900</v>
-      </c>
-      <c r="D79" t="n">
-        <v>47688</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>705</v>
-      </c>
-      <c r="G79" t="n">
-        <v>8250</v>
-      </c>
-      <c r="H79" t="n">
-        <v>4000</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>90543</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="1" t="n"/>
-      <c r="B80" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C80" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>1027222</v>
+        <v>86120.60000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>27977.8</v>
+        <v>1481.31</v>
       </c>
       <c r="F80" t="n">
-        <v>48864</v>
+        <v>2327.9</v>
       </c>
       <c r="G80" t="n">
-        <v>57832</v>
+        <v>12450</v>
       </c>
       <c r="H80" t="n">
-        <v>23900</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>18622.54</v>
       </c>
       <c r="J80" t="n">
-        <v>1210795.8</v>
+        <v>121002.35</v>
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A81" s="1" t="n"/>
       <c r="B81" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D81" t="n">
-        <v>48700</v>
+        <v>41775.12</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1204.84</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>2207.88</v>
       </c>
       <c r="G81" t="n">
-        <v>900</v>
+        <v>6595</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>60.54</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>49600</v>
+        <v>56843.38</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -4895,28 +4895,28 @@
         <v>70</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>74091.19</v>
       </c>
       <c r="D82" t="n">
-        <v>86120.60000000001</v>
+        <v>528308.59</v>
       </c>
       <c r="E82" t="n">
-        <v>1481.31</v>
+        <v>54469.6</v>
       </c>
       <c r="F82" t="n">
-        <v>2327.9</v>
+        <v>109848.5</v>
       </c>
       <c r="G82" t="n">
-        <v>12450</v>
+        <v>450563.79</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>33260.17</v>
       </c>
       <c r="I82" t="n">
-        <v>18622.54</v>
+        <v>47252407.53</v>
       </c>
       <c r="J82" t="n">
-        <v>121002.35</v>
+        <v>48502949.37</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -4925,28 +4925,28 @@
         <v>69</v>
       </c>
       <c r="C83" t="n">
-        <v>5000</v>
+        <v>11118850.72</v>
       </c>
       <c r="D83" t="n">
-        <v>41775.12</v>
+        <v>21869803.77</v>
       </c>
       <c r="E83" t="n">
-        <v>1204.84</v>
+        <v>1009781.99</v>
       </c>
       <c r="F83" t="n">
-        <v>2207.88</v>
+        <v>707725.42</v>
       </c>
       <c r="G83" t="n">
-        <v>6595</v>
+        <v>7648657.21</v>
       </c>
       <c r="H83" t="n">
-        <v>60.54</v>
+        <v>300033.88</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>56843.38</v>
+        <v>42654852.99</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -4957,28 +4957,28 @@
         <v>70</v>
       </c>
       <c r="C84" t="n">
-        <v>74091.19</v>
+        <v>1200000</v>
       </c>
       <c r="D84" t="n">
-        <v>528308.59</v>
+        <v>54964</v>
       </c>
       <c r="E84" t="n">
-        <v>54469.6</v>
+        <v>27720</v>
       </c>
       <c r="F84" t="n">
-        <v>109848.5</v>
+        <v>143329</v>
       </c>
       <c r="G84" t="n">
-        <v>450563.79</v>
+        <v>260157</v>
       </c>
       <c r="H84" t="n">
-        <v>33260.17</v>
+        <v>63899</v>
       </c>
       <c r="I84" t="n">
-        <v>47252407.53</v>
+        <v>1365154</v>
       </c>
       <c r="J84" t="n">
-        <v>48502949.37</v>
+        <v>3115223</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4987,28 +4987,28 @@
         <v>69</v>
       </c>
       <c r="C85" t="n">
-        <v>11118850.72</v>
+        <v>3165868</v>
       </c>
       <c r="D85" t="n">
-        <v>21869803.77</v>
+        <v>1017775</v>
       </c>
       <c r="E85" t="n">
-        <v>1009781.99</v>
+        <v>367102</v>
       </c>
       <c r="F85" t="n">
-        <v>707725.42</v>
+        <v>1009093.24</v>
       </c>
       <c r="G85" t="n">
-        <v>7648657.21</v>
+        <v>611996.26</v>
       </c>
       <c r="H85" t="n">
-        <v>300033.88</v>
+        <v>23221.2</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>42654852.99</v>
+        <v>6195055.7</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -5019,28 +5019,28 @@
         <v>70</v>
       </c>
       <c r="C86" t="n">
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>54964</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>27720</v>
+        <v>8750.82</v>
       </c>
       <c r="F86" t="n">
-        <v>143329</v>
+        <v>1516.5</v>
       </c>
       <c r="G86" t="n">
-        <v>260157</v>
+        <v>971.1</v>
       </c>
       <c r="H86" t="n">
-        <v>63899</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1365154</v>
+        <v>19.92</v>
       </c>
       <c r="J86" t="n">
-        <v>3115223</v>
+        <v>11258.34</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -5049,28 +5049,28 @@
         <v>69</v>
       </c>
       <c r="C87" t="n">
-        <v>3165868</v>
+        <v>140786</v>
       </c>
       <c r="D87" t="n">
-        <v>1017775</v>
+        <v>452862.64</v>
       </c>
       <c r="E87" t="n">
-        <v>367102</v>
+        <v>61189.39</v>
       </c>
       <c r="F87" t="n">
-        <v>1009093.24</v>
+        <v>97458.92999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>611996.26</v>
+        <v>45035</v>
       </c>
       <c r="H87" t="n">
-        <v>23221.2</v>
+        <v>190305.14</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>6195055.7</v>
+        <v>987637.1</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -5087,22 +5087,22 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>8750.82</v>
+        <v>10401.57</v>
       </c>
       <c r="F88" t="n">
-        <v>1516.5</v>
+        <v>20407.26</v>
       </c>
       <c r="G88" t="n">
-        <v>971.1</v>
+        <v>30630.65</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1303.5</v>
       </c>
       <c r="I88" t="n">
-        <v>19.92</v>
+        <v>90076.87</v>
       </c>
       <c r="J88" t="n">
-        <v>11258.34</v>
+        <v>152819.85</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -5111,28 +5111,28 @@
         <v>69</v>
       </c>
       <c r="C89" t="n">
-        <v>140786</v>
+        <v>81985.10000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>452862.64</v>
+        <v>469173.44</v>
       </c>
       <c r="E89" t="n">
-        <v>61189.39</v>
+        <v>35613.66</v>
       </c>
       <c r="F89" t="n">
-        <v>97458.92999999999</v>
+        <v>67582.78999999999</v>
       </c>
       <c r="G89" t="n">
-        <v>45035</v>
+        <v>171223.52</v>
       </c>
       <c r="H89" t="n">
-        <v>190305.14</v>
+        <v>8984.690000000001</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>987637.1</v>
+        <v>834563.2</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -5143,28 +5143,28 @@
         <v>70</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>3116032</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>3182978</v>
       </c>
       <c r="E90" t="n">
-        <v>10401.57</v>
+        <v>30418</v>
       </c>
       <c r="F90" t="n">
-        <v>20407.26</v>
+        <v>184255</v>
       </c>
       <c r="G90" t="n">
-        <v>30630.65</v>
+        <v>606183</v>
       </c>
       <c r="H90" t="n">
-        <v>1303.5</v>
+        <v>29624</v>
       </c>
       <c r="I90" t="n">
-        <v>90076.87</v>
+        <v>12597204</v>
       </c>
       <c r="J90" t="n">
-        <v>152819.85</v>
+        <v>19746694</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -5173,28 +5173,28 @@
         <v>69</v>
       </c>
       <c r="C91" t="n">
-        <v>81985.10000000001</v>
+        <v>2974363</v>
       </c>
       <c r="D91" t="n">
-        <v>469173.44</v>
+        <v>14803212</v>
       </c>
       <c r="E91" t="n">
-        <v>35613.66</v>
+        <v>276845</v>
       </c>
       <c r="F91" t="n">
-        <v>67582.78999999999</v>
+        <v>837625</v>
       </c>
       <c r="G91" t="n">
-        <v>171223.52</v>
+        <v>1794313</v>
       </c>
       <c r="H91" t="n">
-        <v>8984.690000000001</v>
+        <v>54186</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>834563.2</v>
+        <v>20740544</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -5205,28 +5205,28 @@
         <v>70</v>
       </c>
       <c r="C92" t="n">
-        <v>3116032</v>
+        <v>2667</v>
       </c>
       <c r="D92" t="n">
-        <v>3182978</v>
+        <v>75163.61</v>
       </c>
       <c r="E92" t="n">
-        <v>30418</v>
+        <v>13855.34</v>
       </c>
       <c r="F92" t="n">
-        <v>184255</v>
+        <v>34382.94</v>
       </c>
       <c r="G92" t="n">
-        <v>606183</v>
+        <v>39983.84</v>
       </c>
       <c r="H92" t="n">
-        <v>29624</v>
+        <v>1892.62</v>
       </c>
       <c r="I92" t="n">
-        <v>12597204</v>
+        <v>1500</v>
       </c>
       <c r="J92" t="n">
-        <v>19746694</v>
+        <v>169445.35</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -5235,28 +5235,28 @@
         <v>69</v>
       </c>
       <c r="C93" t="n">
-        <v>2974363</v>
+        <v>7835</v>
       </c>
       <c r="D93" t="n">
-        <v>14803212</v>
+        <v>589575.79</v>
       </c>
       <c r="E93" t="n">
-        <v>276845</v>
+        <v>140348.34</v>
       </c>
       <c r="F93" t="n">
-        <v>837625</v>
+        <v>102546.67</v>
       </c>
       <c r="G93" t="n">
-        <v>1794313</v>
+        <v>44371.6</v>
       </c>
       <c r="H93" t="n">
-        <v>54186</v>
+        <v>1545.25</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>20740544</v>
+        <v>886222.65</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -5264,93 +5264,93 @@
         <v>56</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>17700</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2796.79</v>
+      </c>
+      <c r="F94" t="n">
+        <v>7528.79</v>
+      </c>
+      <c r="G94" t="n">
+        <v>34700</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1118.3</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>63843.88</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C94" t="n">
-        <v>2667</v>
-      </c>
-      <c r="D94" t="n">
-        <v>75163.61</v>
-      </c>
-      <c r="E94" t="n">
-        <v>13855.34</v>
-      </c>
-      <c r="F94" t="n">
-        <v>34382.94</v>
-      </c>
-      <c r="G94" t="n">
-        <v>39983.84</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1892.62</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1500</v>
-      </c>
-      <c r="J94" t="n">
-        <v>169445.35</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="1" t="n"/>
-      <c r="B95" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C95" t="n">
-        <v>7835</v>
+        <v>270911.78</v>
       </c>
       <c r="D95" t="n">
-        <v>589575.79</v>
+        <v>26211.88</v>
       </c>
       <c r="E95" t="n">
-        <v>140348.34</v>
+        <v>65495.46</v>
       </c>
       <c r="F95" t="n">
-        <v>102546.67</v>
+        <v>88993.73</v>
       </c>
       <c r="G95" t="n">
-        <v>44371.6</v>
+        <v>1874451.2</v>
       </c>
       <c r="H95" t="n">
-        <v>1545.25</v>
+        <v>76714.38</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>36736600.07</v>
       </c>
       <c r="J95" t="n">
-        <v>886222.65</v>
+        <v>39139378.5</v>
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A96" s="1" t="n"/>
       <c r="B96" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>4467872.71</v>
       </c>
       <c r="D96" t="n">
-        <v>17700</v>
+        <v>11295312.84</v>
       </c>
       <c r="E96" t="n">
-        <v>2796.79</v>
+        <v>1846089.7</v>
       </c>
       <c r="F96" t="n">
-        <v>7528.79</v>
+        <v>830273.29</v>
       </c>
       <c r="G96" t="n">
-        <v>34700</v>
+        <v>2893000.35</v>
       </c>
       <c r="H96" t="n">
-        <v>1118.3</v>
+        <v>248765.96</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>63843.88</v>
+        <v>21581314.85</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -6043,14 +6043,14 @@
     <mergeCell ref="A73:A74"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A80:A81"/>
     <mergeCell ref="A82:A83"/>
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="A86:A87"/>
     <mergeCell ref="A88:A89"/>
     <mergeCell ref="A90:A91"/>
     <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A95:A96"/>
     <mergeCell ref="A97:A98"/>
     <mergeCell ref="A99:A100"/>
     <mergeCell ref="A101:A102"/>
